--- a/data/trans_orig/P04D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{364C0D87-10D8-4336-8E06-357201E55A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B04D5877-9E70-4A8B-B213-3B4FA5F4696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8EB30EDD-D49C-48FE-B496-69BCFA4F1C45}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6B333BD5-6571-473F-8AC9-F606C6F2B6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="405">
   <si>
     <t>Población según si disponen de algún tipo de calefacción (individual, colectiva o con aparatos) en la vivenda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,1444 +67,1192 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No dispone de calefacción</t>
   </si>
   <si>
-    <t>7,99%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>Calefacción con aparatos</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>Calefacción individual y/o colectiva</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si disponen de algún tipo de calefacción (individual, colectiva o con aparatos) en la vivenda en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>Población según si disponen de algún tipo de calefacción (individual, colectiva o con aparatos) en la vivenda en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>Calefacción con aparatos</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>Calefacción individual y/o colectiva</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>24,11%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si disponen de algún tipo de calefacción (individual, colectiva o con aparatos) en la vivenda en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>Población según si disponen de algún tipo de calefacción (individual, colectiva o con aparatos) en la vivenda en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
 </sst>
 </file>
@@ -1916,8 +1664,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116840F0-BC38-42CC-80AB-43303C31CA15}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C356A50F-E0FB-4D6A-B81D-1C655889D109}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2034,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>9248</v>
+        <v>28462</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2049,10 +1797,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>7463</v>
+        <v>30881</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2064,10 +1812,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>16711</v>
+        <v>59344</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2085,10 +1833,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="D5" s="7">
-        <v>77840</v>
+        <v>477118</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2100,10 +1848,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>75</v>
+        <v>438</v>
       </c>
       <c r="I5" s="7">
-        <v>86289</v>
+        <v>473501</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2115,10 +1863,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>157</v>
+        <v>897</v>
       </c>
       <c r="N5" s="7">
-        <v>164129</v>
+        <v>950619</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2136,10 +1884,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7">
-        <v>28677</v>
+        <v>197889</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2151,10 +1899,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="I6" s="7">
-        <v>18153</v>
+        <v>192668</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2166,10 +1914,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>369</v>
       </c>
       <c r="N6" s="7">
-        <v>46830</v>
+        <v>390557</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2187,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2202,10 +1950,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2217,10 +1965,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2240,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>19214</v>
+        <v>30358</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2255,10 +2003,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>23418</v>
+        <v>31862</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2270,10 +2018,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N8" s="7">
-        <v>42632</v>
+        <v>62220</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2291,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>377</v>
+        <v>619</v>
       </c>
       <c r="D9" s="7">
-        <v>399278</v>
+        <v>670032</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2306,34 +2054,34 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>363</v>
+        <v>637</v>
       </c>
       <c r="I9" s="7">
-        <v>387212</v>
+        <v>700638</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>1256</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1370671</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="7">
-        <v>740</v>
-      </c>
-      <c r="N9" s="7">
-        <v>786490</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,49 +2090,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="D10" s="7">
-        <v>169212</v>
+        <v>317557</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>274</v>
+      </c>
+      <c r="I10" s="7">
+        <v>299684</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>166</v>
-      </c>
-      <c r="I10" s="7">
-        <v>174515</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>565</v>
+      </c>
+      <c r="N10" s="7">
+        <v>617241</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>322</v>
-      </c>
-      <c r="N10" s="7">
-        <v>343727</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,10 +2141,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2408,10 +2156,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2423,10 +2171,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2440,55 +2188,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7">
-        <v>30358</v>
+        <v>56034</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>36</v>
+      </c>
+      <c r="I12" s="7">
+        <v>42153</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="7">
-        <v>29</v>
-      </c>
-      <c r="I12" s="7">
-        <v>31862</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>86</v>
+      </c>
+      <c r="N12" s="7">
+        <v>98187</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="7">
-        <v>55</v>
-      </c>
-      <c r="N12" s="7">
-        <v>62220</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,49 +2245,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>619</v>
+        <v>457</v>
       </c>
       <c r="D13" s="7">
-        <v>670032</v>
+        <v>505873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>509</v>
+      </c>
+      <c r="I13" s="7">
+        <v>559130</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="7">
-        <v>637</v>
-      </c>
-      <c r="I13" s="7">
-        <v>700638</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>966</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1065003</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="7">
-        <v>1256</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1370671</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,49 +2296,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>291</v>
+        <v>182</v>
       </c>
       <c r="D14" s="7">
-        <v>317557</v>
+        <v>195715</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>160</v>
+      </c>
+      <c r="I14" s="7">
+        <v>175891</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="7">
-        <v>274</v>
-      </c>
-      <c r="I14" s="7">
-        <v>299684</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>342</v>
+      </c>
+      <c r="N14" s="7">
+        <v>371607</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M14" s="7">
-        <v>565</v>
-      </c>
-      <c r="N14" s="7">
-        <v>617241</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,10 +2347,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2614,10 +2362,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2629,10 +2377,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2646,46 +2394,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>56034</v>
+        <v>27261</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>52</v>
+      </c>
+      <c r="I16" s="7">
+        <v>54680</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="7">
-        <v>36</v>
-      </c>
-      <c r="I16" s="7">
-        <v>42153</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N16" s="7">
-        <v>98187</v>
+        <v>81941</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>102</v>
@@ -2703,10 +2451,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="D17" s="7">
-        <v>505873</v>
+        <v>503552</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>105</v>
@@ -2718,10 +2466,10 @@
         <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="I17" s="7">
-        <v>559130</v>
+        <v>561918</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>108</v>
@@ -2733,10 +2481,10 @@
         <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>966</v>
+        <v>1019</v>
       </c>
       <c r="N17" s="7">
-        <v>1065003</v>
+        <v>1065469</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>111</v>
@@ -2745,7 +2493,7 @@
         <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,49 +2502,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="D18" s="7">
-        <v>195715</v>
+        <v>416926</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
-        <v>160</v>
+        <v>417</v>
       </c>
       <c r="I18" s="7">
-        <v>175891</v>
+        <v>435304</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
-        <v>342</v>
+        <v>816</v>
       </c>
       <c r="N18" s="7">
-        <v>371607</v>
+        <v>852230</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,10 +2553,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2820,10 +2568,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2835,10 +2583,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2852,16 +2600,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="D20" s="7">
-        <v>27261</v>
+        <v>142116</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>123</v>
@@ -2873,10 +2621,10 @@
         <v>125</v>
       </c>
       <c r="H20" s="7">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="I20" s="7">
-        <v>54680</v>
+        <v>159575</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>126</v>
@@ -2888,19 +2636,19 @@
         <v>128</v>
       </c>
       <c r="M20" s="7">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="N20" s="7">
-        <v>81941</v>
+        <v>301691</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,49 +2657,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>485</v>
+        <v>2020</v>
       </c>
       <c r="D21" s="7">
-        <v>503552</v>
+        <v>2156576</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>2118</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2295187</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="7">
-        <v>534</v>
-      </c>
-      <c r="I21" s="7">
-        <v>561918</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>4138</v>
+      </c>
+      <c r="N21" s="7">
+        <v>4451763</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="7">
-        <v>1019</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1065469</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,49 +2708,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>399</v>
+        <v>1058</v>
       </c>
       <c r="D22" s="7">
-        <v>416926</v>
+        <v>1128087</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1034</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1103547</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="7">
-        <v>417</v>
-      </c>
-      <c r="I22" s="7">
-        <v>435304</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2092</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2231634</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M22" s="7">
-        <v>816</v>
-      </c>
-      <c r="N22" s="7">
-        <v>852230</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,10 +2759,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3026,10 +2774,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I23" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3041,10 +2789,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N23" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3057,222 +2805,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>131</v>
-      </c>
-      <c r="D24" s="7">
-        <v>142116</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="7">
-        <v>146</v>
-      </c>
-      <c r="I24" s="7">
-        <v>159575</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" s="7">
-        <v>277</v>
-      </c>
-      <c r="N24" s="7">
-        <v>301691</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2020</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2156576</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2118</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2295187</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4138</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4451763</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1058</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1128087</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1103547</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2092</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2231634</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>176</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3285,8 +2826,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF3D452-C673-4FB3-B605-59CACE24B9A8}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83FC7EB-70ED-4E90-9E7D-AD5ADB4F09D6}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3302,7 +2843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3403,49 +2944,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="D4" s="7">
-        <v>13482</v>
+        <v>125393</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7">
-        <v>16820</v>
+        <v>115038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="N4" s="7">
-        <v>30302</v>
+        <v>240431</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,49 +2995,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>60</v>
+        <v>361</v>
       </c>
       <c r="D5" s="7">
-        <v>61275</v>
+        <v>364480</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
-        <v>69</v>
+        <v>371</v>
       </c>
       <c r="I5" s="7">
-        <v>67991</v>
+        <v>373643</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
-        <v>129</v>
+        <v>732</v>
       </c>
       <c r="N5" s="7">
-        <v>129267</v>
+        <v>738123</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,49 +3046,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="D6" s="7">
-        <v>41789</v>
+        <v>184926</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="I6" s="7">
-        <v>28549</v>
+        <v>184158</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
-        <v>68</v>
+        <v>356</v>
       </c>
       <c r="N6" s="7">
-        <v>70338</v>
+        <v>369085</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,10 +3097,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3571,10 +3112,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3586,10 +3127,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3609,49 +3150,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D8" s="7">
-        <v>111911</v>
+        <v>151077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I8" s="7">
-        <v>98218</v>
+        <v>144257</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="N8" s="7">
-        <v>210129</v>
+        <v>295334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,49 +3201,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>301</v>
+        <v>540</v>
       </c>
       <c r="D9" s="7">
-        <v>303205</v>
+        <v>577914</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7">
-        <v>302</v>
+        <v>549</v>
       </c>
       <c r="I9" s="7">
-        <v>305651</v>
+        <v>588386</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="M9" s="7">
-        <v>603</v>
+        <v>1089</v>
       </c>
       <c r="N9" s="7">
-        <v>608856</v>
+        <v>1166299</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,49 +3252,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="D10" s="7">
-        <v>143137</v>
+        <v>293440</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="I10" s="7">
-        <v>155610</v>
+        <v>310270</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
-        <v>288</v>
+        <v>563</v>
       </c>
       <c r="N10" s="7">
-        <v>298747</v>
+        <v>603710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,10 +3303,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3777,10 +3318,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3792,10 +3333,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3809,55 +3350,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D12" s="7">
-        <v>151077</v>
+        <v>155593</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
         <v>139</v>
       </c>
       <c r="I12" s="7">
-        <v>144257</v>
+        <v>152581</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N12" s="7">
-        <v>295334</v>
+        <v>308174</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,49 +3407,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>540</v>
+        <v>305</v>
       </c>
       <c r="D13" s="7">
-        <v>577914</v>
+        <v>326271</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
-        <v>549</v>
+        <v>310</v>
       </c>
       <c r="I13" s="7">
-        <v>588386</v>
+        <v>321541</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
-        <v>1089</v>
+        <v>615</v>
       </c>
       <c r="N13" s="7">
-        <v>1166299</v>
+        <v>647812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,49 +3458,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="D14" s="7">
-        <v>293440</v>
+        <v>277689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I14" s="7">
-        <v>310270</v>
+        <v>310889</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="N14" s="7">
-        <v>603710</v>
+        <v>588577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,10 +3509,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3983,10 +3524,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3998,10 +3539,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N15" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4015,55 +3556,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>155593</v>
+        <v>101508</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="I16" s="7">
-        <v>152581</v>
+        <v>102918</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="N16" s="7">
-        <v>308174</v>
+        <v>204426</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,49 +3613,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>305</v>
+        <v>531</v>
       </c>
       <c r="D17" s="7">
-        <v>326271</v>
+        <v>527761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
-        <v>310</v>
+        <v>522</v>
       </c>
       <c r="I17" s="7">
-        <v>321541</v>
+        <v>563266</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
-        <v>615</v>
+        <v>1053</v>
       </c>
       <c r="N17" s="7">
-        <v>647812</v>
+        <v>1091027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,49 +3664,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>307</v>
+      </c>
+      <c r="D18" s="7">
+        <v>308298</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="7">
-        <v>277689</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="H18" s="7">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="I18" s="7">
-        <v>310889</v>
+        <v>377595</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="M18" s="7">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="N18" s="7">
-        <v>588577</v>
+        <v>685893</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,10 +3715,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4189,10 +3730,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4204,10 +3745,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4221,55 +3762,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>94</v>
+        <v>487</v>
       </c>
       <c r="D20" s="7">
-        <v>101508</v>
+        <v>533571</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
-        <v>93</v>
+        <v>486</v>
       </c>
       <c r="I20" s="7">
-        <v>102918</v>
+        <v>514794</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
-        <v>187</v>
+        <v>973</v>
       </c>
       <c r="N20" s="7">
-        <v>204426</v>
+        <v>1048365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,49 +3819,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>531</v>
+        <v>1737</v>
       </c>
       <c r="D21" s="7">
-        <v>527761</v>
+        <v>1796426</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="H21" s="7">
-        <v>522</v>
+        <v>1752</v>
       </c>
       <c r="I21" s="7">
-        <v>563266</v>
+        <v>1846836</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="M21" s="7">
-        <v>1053</v>
+        <v>3489</v>
       </c>
       <c r="N21" s="7">
-        <v>1091027</v>
+        <v>3643262</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,49 +3870,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>307</v>
+        <v>1007</v>
       </c>
       <c r="D22" s="7">
-        <v>308298</v>
+        <v>1064353</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
-        <v>344</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="7">
-        <v>377595</v>
+        <v>1182912</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
-        <v>651</v>
+        <v>2107</v>
       </c>
       <c r="N22" s="7">
-        <v>685893</v>
+        <v>2247265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,10 +3921,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D23" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4395,10 +3936,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I23" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4410,10 +3951,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N23" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4426,222 +3967,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>487</v>
-      </c>
-      <c r="D24" s="7">
-        <v>533571</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H24" s="7">
-        <v>486</v>
-      </c>
-      <c r="I24" s="7">
-        <v>514794</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M24" s="7">
-        <v>973</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1048365</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1737</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1796426</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1752</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1846836</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3489</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3643262</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1007</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1064353</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1100</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1182912</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2107</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2247265</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>176</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4654,8 +3988,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1F922-CEDB-48D2-810A-5D2736B37F8C}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3904F5-92A7-4FB4-A744-CBC20C22D14D}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4671,7 +4005,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4772,49 +4106,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>5759</v>
+        <v>23160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I4" s="7">
-        <v>9908</v>
+        <v>35812</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="N4" s="7">
-        <v>15667</v>
+        <v>58972</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>556</v>
       </c>
       <c r="D5" s="7">
-        <v>72449</v>
+        <v>476372</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
-        <v>177</v>
+        <v>938</v>
       </c>
       <c r="I5" s="7">
-        <v>93777</v>
+        <v>540264</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
-        <v>259</v>
+        <v>1494</v>
       </c>
       <c r="N5" s="7">
-        <v>166226</v>
+        <v>1016635</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,49 +4208,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="D6" s="7">
-        <v>23774</v>
+        <v>134890</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="H6" s="7">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="I6" s="7">
-        <v>27048</v>
+        <v>149254</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="M6" s="7">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="N6" s="7">
-        <v>50822</v>
+        <v>284144</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,10 +4259,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>634422</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4940,10 +4274,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4955,10 +4289,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1970</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1359752</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4978,49 +4312,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7">
-        <v>17391</v>
+        <v>90507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="I8" s="7">
-        <v>26871</v>
+        <v>82772</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>366</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="N8" s="7">
-        <v>44262</v>
+        <v>173280</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,49 +4363,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>474</v>
+        <v>649</v>
       </c>
       <c r="D9" s="7">
-        <v>422370</v>
+        <v>607652</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="H9" s="7">
-        <v>761</v>
+        <v>1064</v>
       </c>
       <c r="I9" s="7">
-        <v>464299</v>
+        <v>660404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>376</v>
+        <v>136</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="M9" s="7">
-        <v>1235</v>
+        <v>1713</v>
       </c>
       <c r="N9" s="7">
-        <v>886669</v>
+        <v>1268057</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,49 +4414,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="D10" s="7">
-        <v>109011</v>
+        <v>494704</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
-        <v>192</v>
+        <v>321</v>
       </c>
       <c r="I10" s="7">
-        <v>128797</v>
+        <v>215475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
-        <v>306</v>
+        <v>550</v>
       </c>
       <c r="N10" s="7">
-        <v>237809</v>
+        <v>710179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>548773</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5146,10 +4480,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I11" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5161,10 +4495,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1609</v>
+        <v>2481</v>
       </c>
       <c r="N11" s="7">
-        <v>1168740</v>
+        <v>2151516</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5178,55 +4512,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="D12" s="7">
-        <v>86725</v>
+        <v>143943</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>391</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="H12" s="7">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="I12" s="7">
-        <v>88300</v>
+        <v>152583</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="M12" s="7">
-        <v>218</v>
+        <v>405</v>
       </c>
       <c r="N12" s="7">
-        <v>175024</v>
+        <v>296526</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,49 +4569,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>649</v>
+        <v>412</v>
       </c>
       <c r="D13" s="7">
-        <v>649559</v>
+        <v>457039</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
-        <v>1064</v>
+        <v>651</v>
       </c>
       <c r="I13" s="7">
-        <v>739651</v>
+        <v>690650</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
-        <v>1713</v>
+        <v>1063</v>
       </c>
       <c r="N13" s="7">
-        <v>1389211</v>
+        <v>1147689</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,49 +4620,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="D14" s="7">
-        <v>302964</v>
+        <v>103698</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
-        <v>321</v>
+        <v>142</v>
       </c>
       <c r="I14" s="7">
-        <v>232128</v>
+        <v>90133</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
-        <v>550</v>
+        <v>255</v>
       </c>
       <c r="N14" s="7">
-        <v>535092</v>
+        <v>193831</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,10 +4671,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5352,10 +4686,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I15" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5367,10 +4701,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N15" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5384,55 +4718,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7">
-        <v>140471</v>
+        <v>103861</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="I16" s="7">
-        <v>158318</v>
+        <v>172658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
-        <v>405</v>
+        <v>266</v>
       </c>
       <c r="N16" s="7">
-        <v>298789</v>
+        <v>276519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,49 +4775,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>412</v>
+        <v>585</v>
       </c>
       <c r="D17" s="7">
-        <v>483122</v>
+        <v>517857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>424</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
-        <v>651</v>
+        <v>896</v>
       </c>
       <c r="I17" s="7">
-        <v>621224</v>
+        <v>586344</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
-        <v>1063</v>
+        <v>1481</v>
       </c>
       <c r="N17" s="7">
-        <v>1104345</v>
+        <v>1104201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,49 +4826,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>113</v>
+        <v>319</v>
       </c>
       <c r="D18" s="7">
-        <v>105180</v>
+        <v>305113</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>140</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
-        <v>142</v>
+        <v>502</v>
       </c>
       <c r="I18" s="7">
-        <v>94829</v>
+        <v>335930</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
-        <v>255</v>
+        <v>821</v>
       </c>
       <c r="N18" s="7">
-        <v>200008</v>
+        <v>641044</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,10 +4877,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5558,10 +4892,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I19" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5573,10 +4907,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N19" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5590,55 +4924,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>102</v>
+        <v>369</v>
       </c>
       <c r="D20" s="7">
-        <v>105387</v>
+        <v>361472</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
-        <v>164</v>
+        <v>612</v>
       </c>
       <c r="I20" s="7">
-        <v>128622</v>
+        <v>443825</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
-        <v>266</v>
+        <v>981</v>
       </c>
       <c r="N20" s="7">
-        <v>234010</v>
+        <v>805297</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>447</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,49 +4981,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>585</v>
+        <v>2202</v>
       </c>
       <c r="D21" s="7">
-        <v>552185</v>
+        <v>2058920</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="H21" s="7">
-        <v>896</v>
+        <v>3549</v>
       </c>
       <c r="I21" s="7">
-        <v>659971</v>
+        <v>2477662</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
-        <v>1481</v>
+        <v>5751</v>
       </c>
       <c r="N21" s="7">
-        <v>1212156</v>
+        <v>4536582</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,49 +5032,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>319</v>
+        <v>804</v>
       </c>
       <c r="D22" s="7">
-        <v>307831</v>
+        <v>1038405</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>458</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>459</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
-        <v>502</v>
+        <v>1206</v>
       </c>
       <c r="I22" s="7">
-        <v>361839</v>
+        <v>790793</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
-        <v>821</v>
+        <v>2010</v>
       </c>
       <c r="N22" s="7">
-        <v>669670</v>
+        <v>1829198</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>464</v>
+        <v>403</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D23" s="7">
-        <v>965403</v>
+        <v>3458797</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -5764,10 +5098,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I23" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5779,10 +5113,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2568</v>
+        <v>8742</v>
       </c>
       <c r="N23" s="7">
-        <v>2115835</v>
+        <v>7171077</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5795,222 +5129,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>369</v>
-      </c>
-      <c r="D24" s="7">
-        <v>355733</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H24" s="7">
-        <v>612</v>
-      </c>
-      <c r="I24" s="7">
-        <v>412019</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="M24" s="7">
-        <v>981</v>
-      </c>
-      <c r="N24" s="7">
-        <v>767752</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2202</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2179685</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3549</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2578922</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="M25" s="7">
-        <v>5751</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4758608</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>804</v>
-      </c>
-      <c r="D26" s="7">
-        <v>848760</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1206</v>
-      </c>
-      <c r="I26" s="7">
-        <v>844640</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2010</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1693401</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3384178</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8742</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7219760</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>176</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
